--- a/data/trans_orig/P79_n_R3-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P79_n_R3-Edad-trans_orig.xlsx
@@ -744,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>15429</v>
+        <v>14931</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01078852712223636</v>
@@ -753,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03783615832258034</v>
+        <v>0.03661487970412455</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -765,7 +765,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>17886</v>
+        <v>21648</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01216551067601009</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04933901714004297</v>
+        <v>0.05971597249014961</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>4</v>
@@ -783,19 +783,19 @@
         <v>8810</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2906</v>
+        <v>2911</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>22188</v>
+        <v>21446</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01143654706653503</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.003772679199685329</v>
+        <v>0.003778696735111644</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02880470660767414</v>
+        <v>0.02784034026090577</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>13956</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>5894</v>
+        <v>5507</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>29165</v>
+        <v>27299</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.03422410118901308</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01445370379217107</v>
+        <v>0.01350520285514993</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.07151873364412371</v>
+        <v>0.06694421806455421</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>11</v>
@@ -833,19 +833,19 @@
         <v>20397</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>10699</v>
+        <v>10777</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>37828</v>
+        <v>36350</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.05626492851927162</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02951394402580548</v>
+        <v>0.02972914419517749</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1043491000073405</v>
+        <v>0.1002730291497209</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>17</v>
@@ -854,19 +854,19 @@
         <v>34353</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>21272</v>
+        <v>20084</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>54592</v>
+        <v>55474</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.04459669834873031</v>
+        <v>0.04459669834873029</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02761562268292643</v>
+        <v>0.02607261562106243</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.07087067878878915</v>
+        <v>0.07201498550904661</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>35627</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>19910</v>
+        <v>18573</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>60419</v>
+        <v>57814</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.08736424435936385</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.04882354727897586</v>
+        <v>0.04554581631796724</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1481616149704101</v>
+        <v>0.1417741271226801</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>22</v>
@@ -904,19 +904,19 @@
         <v>38132</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>25554</v>
+        <v>24228</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>58422</v>
+        <v>56751</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1051876093795035</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.07049151961484917</v>
+        <v>0.06683302492866013</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.161159262734811</v>
+        <v>0.1565493515195377</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>36</v>
@@ -925,19 +925,19 @@
         <v>73758</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>51464</v>
+        <v>52268</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>103669</v>
+        <v>100561</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.09575206858276315</v>
+        <v>0.09575206858276314</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.06681013106127993</v>
+        <v>0.06785383263397771</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1345818375856314</v>
+        <v>0.1305466054380623</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>353811</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>322749</v>
+        <v>328017</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>372696</v>
+        <v>373733</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.8676231273293868</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.791453150756657</v>
+        <v>0.8043705732537033</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9139342686980847</v>
+        <v>0.9164766041248343</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>172</v>
@@ -975,19 +975,19 @@
         <v>299573</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>275956</v>
+        <v>278084</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>316227</v>
+        <v>316951</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.8263819514252148</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.7612329117115152</v>
+        <v>0.7671030413325566</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.8723208911290566</v>
+        <v>0.8743180212729718</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>322</v>
@@ -996,19 +996,19 @@
         <v>653384</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>617232</v>
+        <v>622106</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>678990</v>
+        <v>681553</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.8482146860019716</v>
+        <v>0.8482146860019715</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.8012821907205703</v>
+        <v>0.8076096722992415</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.8814560563087014</v>
+        <v>0.8847829135019394</v>
       </c>
     </row>
     <row r="8">
@@ -1100,19 +1100,19 @@
         <v>4667</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1215</v>
+        <v>1222</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>13696</v>
+        <v>12252</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.00978541438592205</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.002546993313977533</v>
+        <v>0.00256239229634209</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.02871837725116971</v>
+        <v>0.02569146026477107</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>0</v>
@@ -1134,19 +1134,19 @@
         <v>4667</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>1205</v>
+        <v>1216</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>12819</v>
+        <v>12766</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.004768505814034085</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.001230900359451401</v>
+        <v>0.001242496290917806</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.0130993096296639</v>
+        <v>0.01304437957719281</v>
       </c>
     </row>
     <row r="10">
@@ -1163,19 +1163,19 @@
         <v>12438</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>5541</v>
+        <v>6110</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>21601</v>
+        <v>23504</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02608051359780343</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0116193118210538</v>
+        <v>0.01281309885937864</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04529472693932445</v>
+        <v>0.04928650842920709</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>15</v>
@@ -1184,19 +1184,19 @@
         <v>15991</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>9654</v>
+        <v>9195</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>27164</v>
+        <v>25446</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03187235184766769</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01924170136227866</v>
+        <v>0.0183272747486518</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05414008234350931</v>
+        <v>0.05071659760326633</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>24</v>
@@ -1205,19 +1205,19 @@
         <v>28429</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>18099</v>
+        <v>18835</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>41217</v>
+        <v>41635</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02904994563376668</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01849450868607242</v>
+        <v>0.01924692444047435</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04211720909889567</v>
+        <v>0.04254411012856673</v>
       </c>
     </row>
     <row r="11">
@@ -1234,19 +1234,19 @@
         <v>50378</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>34376</v>
+        <v>34070</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>72603</v>
+        <v>71060</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1056380118632616</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.07208438709121853</v>
+        <v>0.07144176052811414</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1522427997649969</v>
+        <v>0.1490076543517684</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>52</v>
@@ -1255,19 +1255,19 @@
         <v>59643</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>44946</v>
+        <v>45461</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>74539</v>
+        <v>79618</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1188739010973369</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.08958088126871457</v>
+        <v>0.09060807937555765</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1485622114322812</v>
+        <v>0.1586859566600999</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>83</v>
@@ -1276,19 +1276,19 @@
         <v>110021</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>87444</v>
+        <v>89604</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>135624</v>
+        <v>133614</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.112423953013646</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.08935438561467023</v>
+        <v>0.09156098072844293</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.138586918565307</v>
+        <v>0.1365330469368611</v>
       </c>
     </row>
     <row r="12">
@@ -1305,19 +1305,19 @@
         <v>409408</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>387251</v>
+        <v>386918</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>427563</v>
+        <v>425792</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.8584960601530128</v>
+        <v>0.8584960601530129</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8120347615983351</v>
+        <v>0.811335743002527</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8965662724521299</v>
+        <v>0.892852141826094</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>394</v>
@@ -1326,19 +1326,19 @@
         <v>426099</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>409908</v>
+        <v>404928</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>442877</v>
+        <v>441039</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.8492537470549952</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.8169837842822659</v>
+        <v>0.807059256781463</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.882693656081174</v>
+        <v>0.8790311905286932</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>653</v>
@@ -1347,19 +1347,19 @@
         <v>835507</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>809469</v>
+        <v>808504</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>860566</v>
+        <v>858678</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.8537575955385531</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.8271509681600776</v>
+        <v>0.8261648677441643</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.8793639649540307</v>
+        <v>0.877434632944373</v>
       </c>
     </row>
     <row r="13">
@@ -1451,19 +1451,19 @@
         <v>4170</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1128</v>
+        <v>1226</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>10421</v>
+        <v>10989</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.006717188558565678</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.001816417077543702</v>
+        <v>0.001974272548502843</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.0167857994115071</v>
+        <v>0.01770054452660699</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>7</v>
@@ -1472,19 +1472,19 @@
         <v>5763</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2449</v>
+        <v>2425</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>11901</v>
+        <v>11852</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.009247497765810917</v>
+        <v>0.009247497765810915</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.003929809997240063</v>
+        <v>0.003891209921823911</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01909750693148357</v>
+        <v>0.01901864081719976</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>11</v>
@@ -1493,19 +1493,19 @@
         <v>9933</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>5506</v>
+        <v>5211</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>18016</v>
+        <v>17090</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.007984738972195343</v>
+        <v>0.007984738972195341</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.004425618351741939</v>
+        <v>0.004189110384879864</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.0144821826129428</v>
+        <v>0.01373753022940174</v>
       </c>
     </row>
     <row r="15">
@@ -1522,19 +1522,19 @@
         <v>20455</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>12095</v>
+        <v>12708</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>31040</v>
+        <v>31372</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.03294789412656488</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.01948152610949651</v>
+        <v>0.02046933870910117</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.04999636013543261</v>
+        <v>0.05053220091375384</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>27</v>
@@ -1543,19 +1543,19 @@
         <v>21100</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>14133</v>
+        <v>14011</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>30088</v>
+        <v>30244</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.03385828880277989</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.0226780335896904</v>
+        <v>0.0224824667581631</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.04827966262257673</v>
+        <v>0.04853073948311326</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>45</v>
@@ -1564,19 +1564,19 @@
         <v>41555</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>31501</v>
+        <v>29741</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>55746</v>
+        <v>54396</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.03340395346709857</v>
+        <v>0.03340395346709856</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.02532165544055942</v>
+        <v>0.02390726732994142</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.04481045636621184</v>
+        <v>0.04372533738375147</v>
       </c>
     </row>
     <row r="16">
@@ -1593,19 +1593,19 @@
         <v>67563</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>51295</v>
+        <v>52462</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>87207</v>
+        <v>86224</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1088258578696478</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.08262284177172634</v>
+        <v>0.08450239993810382</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1404666153839837</v>
+        <v>0.138883466869855</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>68</v>
@@ -1614,19 +1614,19 @@
         <v>53788</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>43871</v>
+        <v>42680</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>67804</v>
+        <v>65660</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.08631078799349012</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.07039681439444637</v>
+        <v>0.06848568578448525</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1088002041204776</v>
+        <v>0.1053608430596358</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>126</v>
@@ -1635,19 +1635,19 @@
         <v>121351</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>102294</v>
+        <v>103999</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>144040</v>
+        <v>142928</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.09754700465569809</v>
+        <v>0.09754700465569807</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0822278725539681</v>
+        <v>0.08359837477966496</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1157847103010935</v>
+        <v>0.1148911917459797</v>
       </c>
     </row>
     <row r="17">
@@ -1664,19 +1664,19 @@
         <v>528648</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>506111</v>
+        <v>508372</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>546706</v>
+        <v>545598</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8515090594452218</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8152079190966487</v>
+        <v>0.8188497014622624</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8805956034219966</v>
+        <v>0.8788101371290068</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>746</v>
@@ -1685,19 +1685,19 @@
         <v>542541</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>526425</v>
+        <v>527754</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>556107</v>
+        <v>556123</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8705834254379191</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8447219403832521</v>
+        <v>0.846854199714589</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8923512297432816</v>
+        <v>0.8923771330714046</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1212</v>
@@ -1706,19 +1706,19 @@
         <v>1071189</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1044935</v>
+        <v>1044833</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1094501</v>
+        <v>1091076</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8610643029050079</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8399604746542916</v>
+        <v>0.83987821546742</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.87980357736838</v>
+        <v>0.8770505128077559</v>
       </c>
     </row>
     <row r="18">
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>3725</v>
+        <v>4599</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.001318403345873021</v>
@@ -1822,7 +1822,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.005316073763758148</v>
+        <v>0.006563631679826594</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>9</v>
@@ -1831,19 +1831,19 @@
         <v>6229</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>2800</v>
+        <v>2718</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>11666</v>
+        <v>10522</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.008452715823165315</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.003800104239921854</v>
+        <v>0.003688194296122424</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.01583195539814143</v>
+        <v>0.01427954542814565</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>10</v>
@@ -1852,19 +1852,19 @@
         <v>7152</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>3590</v>
+        <v>3621</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>12634</v>
+        <v>12412</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.004975561421775724</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.002497474948213299</v>
+        <v>0.002518945942461124</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.008788968173796419</v>
+        <v>0.008634075736594474</v>
       </c>
     </row>
     <row r="20">
@@ -1881,19 +1881,19 @@
         <v>28804</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>20284</v>
+        <v>19735</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>42962</v>
+        <v>42244</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.04111166274053488</v>
+        <v>0.04111166274053487</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.02895143544007223</v>
+        <v>0.02816791303409216</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.06131957760449159</v>
+        <v>0.06029579051709111</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>34</v>
@@ -1902,19 +1902,19 @@
         <v>24103</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>17391</v>
+        <v>16722</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>33318</v>
+        <v>33676</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.03270967512459184</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.0235999954751133</v>
+        <v>0.02269235605105169</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.04521433233145012</v>
+        <v>0.04570093006067004</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>59</v>
@@ -1923,19 +1923,19 @@
         <v>52907</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>39113</v>
+        <v>40481</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>67128</v>
+        <v>66946</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.03680467493181716</v>
+        <v>0.03680467493181717</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.02720881239117116</v>
+        <v>0.02816075355032673</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.04669785150725654</v>
+        <v>0.04657067722469764</v>
       </c>
     </row>
     <row r="21">
@@ -1952,19 +1952,19 @@
         <v>69435</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>54945</v>
+        <v>53441</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>86958</v>
+        <v>85625</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.09910512556995059</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.07842425090375225</v>
+        <v>0.07627691446966471</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1241162763846522</v>
+        <v>0.1222136398396199</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>95</v>
@@ -1973,19 +1973,19 @@
         <v>67056</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>54210</v>
+        <v>54413</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>80098</v>
+        <v>80761</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.09099880866234081</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.0735661950056927</v>
+        <v>0.07384131851748389</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1086977369317426</v>
+        <v>0.1095970453353623</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>156</v>
@@ -1994,19 +1994,19 @@
         <v>136491</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>115581</v>
+        <v>115784</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>158039</v>
+        <v>158249</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.09494970310438688</v>
+        <v>0.09494970310438691</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.08040361955937013</v>
+        <v>0.08054548733152959</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1099396619634723</v>
+        <v>0.1100858207332431</v>
       </c>
     </row>
     <row r="22">
@@ -2023,19 +2023,19 @@
         <v>601455</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>581934</v>
+        <v>582033</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>619988</v>
+        <v>620428</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.8584648083436415</v>
+        <v>0.8584648083436414</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.830602163434893</v>
+        <v>0.8307434436588712</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8849167889180642</v>
+        <v>0.8855455973310583</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1003</v>
@@ -2044,19 +2044,19 @@
         <v>639498</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>622887</v>
+        <v>624222</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>654822</v>
+        <v>654080</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.867838800389902</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8452956277697822</v>
+        <v>0.8471082542138613</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.88863351227475</v>
+        <v>0.8876266124616305</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1581</v>
@@ -2065,19 +2065,19 @@
         <v>1240954</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1217311</v>
+        <v>1216219</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1265621</v>
+        <v>1266762</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.8632700605420203</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8468229130292506</v>
+        <v>0.8460628907819598</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8804295965588481</v>
+        <v>0.8812233448221977</v>
       </c>
     </row>
     <row r="23">
@@ -2169,19 +2169,19 @@
         <v>7387</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2854</v>
+        <v>2870</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>15237</v>
+        <v>14035</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.0121221890005099</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.004683157805628396</v>
+        <v>0.004709469269632726</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.02500512023002996</v>
+        <v>0.02303319032713611</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>5</v>
@@ -2190,19 +2190,19 @@
         <v>3396</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>1308</v>
+        <v>1275</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>7369</v>
+        <v>7454</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.005578074904523628</v>
+        <v>0.005578074904523629</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.002147873823011475</v>
+        <v>0.002093740929623145</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.01210380439902322</v>
+        <v>0.0122425265786196</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>12</v>
@@ -2211,19 +2211,19 @@
         <v>10783</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>5997</v>
+        <v>6012</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>19467</v>
+        <v>18753</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.008851450881943867</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.004922579275892985</v>
+        <v>0.004935458400543554</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.01598046479019425</v>
+        <v>0.01539387181436064</v>
       </c>
     </row>
     <row r="25">
@@ -2240,19 +2240,19 @@
         <v>23800</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>16578</v>
+        <v>16042</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>33828</v>
+        <v>33296</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03905860170435831</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02720559009242501</v>
+        <v>0.02632593018930874</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.05551566495342435</v>
+        <v>0.05464185281388441</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>29</v>
@@ -2261,19 +2261,19 @@
         <v>19687</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>13152</v>
+        <v>14012</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>27398</v>
+        <v>27670</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.03233435642522625</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02160183725560718</v>
+        <v>0.02301433054514982</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.04499906228424563</v>
+        <v>0.04544668492220395</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>56</v>
@@ -2282,19 +2282,19 @@
         <v>43487</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>32740</v>
+        <v>33715</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>55006</v>
+        <v>56938</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.03569783429864726</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02687555413661551</v>
+        <v>0.02767626069833217</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04515318081454962</v>
+        <v>0.04673958648893368</v>
       </c>
     </row>
     <row r="26">
@@ -2311,19 +2311,19 @@
         <v>57446</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>44846</v>
+        <v>45287</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>72380</v>
+        <v>73231</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.09427518936883293</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.07359680708304771</v>
+        <v>0.07432020114126851</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1187834225545369</v>
+        <v>0.1201802099673167</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>105</v>
@@ -2332,19 +2332,19 @@
         <v>69818</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>58354</v>
+        <v>57952</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>83582</v>
+        <v>83520</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1146713307161543</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.0958418455162092</v>
+        <v>0.09518255908124128</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1372774983019782</v>
+        <v>0.137174889667238</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>166</v>
@@ -2353,19 +2353,19 @@
         <v>127265</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>110600</v>
+        <v>108690</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>147625</v>
+        <v>145023</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1044691493148034</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.09078916384885739</v>
+        <v>0.08922206162810685</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1211830714690251</v>
+        <v>0.1190467744885787</v>
       </c>
     </row>
     <row r="27">
@@ -2382,19 +2382,19 @@
         <v>520713</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>502714</v>
+        <v>503265</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>536211</v>
+        <v>535755</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.8545440199262988</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.8250064231611167</v>
+        <v>0.8259103957276855</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.8799771582938559</v>
+        <v>0.8792294965278092</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>863</v>
@@ -2403,19 +2403,19 @@
         <v>515954</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>502206</v>
+        <v>501414</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>530638</v>
+        <v>529413</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>0.8474162379540957</v>
+        <v>0.8474162379540958</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.8248376011560752</v>
+        <v>0.8235354541133594</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.8715338854324127</v>
+        <v>0.8695227217089517</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>1431</v>
@@ -2424,19 +2424,19 @@
         <v>1036667</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>1013542</v>
+        <v>1015552</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>1057033</v>
+        <v>1060286</v>
       </c>
       <c r="U27" s="6" t="n">
-        <v>0.8509815655046052</v>
+        <v>0.8509815655046055</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.8319981224584304</v>
+        <v>0.833648605778522</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.867699652906182</v>
+        <v>0.8703693236460633</v>
       </c>
     </row>
     <row r="28">
@@ -2544,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3282</v>
+        <v>3558</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.002258717058952447</v>
@@ -2553,7 +2553,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.007474249270328339</v>
+        <v>0.008101702584290129</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2</v>
@@ -2565,7 +2565,7 @@
         <v>0</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>3651</v>
+        <v>3507</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.001172179551904271</v>
@@ -2574,7 +2574,7 @@
         <v>0</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.004314720850723327</v>
+        <v>0.004144748163785511</v>
       </c>
     </row>
     <row r="30">
@@ -2591,19 +2591,19 @@
         <v>14445</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>9334</v>
+        <v>9136</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>22190</v>
+        <v>20991</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.03548351804844366</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.02293005388995295</v>
+        <v>0.02244154435247731</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.0545092405474815</v>
+        <v>0.05156538326508622</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>26</v>
@@ -2612,19 +2612,19 @@
         <v>15482</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>10358</v>
+        <v>10504</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>21572</v>
+        <v>22285</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.03525294323134369</v>
+        <v>0.03525294323134368</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.02358459502044874</v>
+        <v>0.02391736006727298</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.04912049013510426</v>
+        <v>0.05074476204434015</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>46</v>
@@ -2633,19 +2633,19 @@
         <v>29927</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>22109</v>
+        <v>22307</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>39531</v>
+        <v>39428</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.03536385937551806</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.02612595297210839</v>
+        <v>0.02636021256651293</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.04671279303138479</v>
+        <v>0.04659121509762635</v>
       </c>
     </row>
     <row r="31">
@@ -2662,19 +2662,19 @@
         <v>32698</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>24304</v>
+        <v>24493</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>42046</v>
+        <v>41890</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.08032290670892572</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.05970363532614802</v>
+        <v>0.06016662151924131</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1032876032328958</v>
+        <v>0.1029036968070394</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>63</v>
@@ -2683,19 +2683,19 @@
         <v>36984</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>29249</v>
+        <v>29257</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>46819</v>
+        <v>46136</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>0.08421303414651921</v>
+        <v>0.08421303414651919</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.0666009236256199</v>
+        <v>0.06661897316748423</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1066094624739846</v>
+        <v>0.1050547329387166</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>111</v>
@@ -2704,19 +2704,19 @@
         <v>69681</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>57484</v>
+        <v>58356</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>83345</v>
+        <v>83072</v>
       </c>
       <c r="U31" s="6" t="n">
-        <v>0.0823417199190954</v>
+        <v>0.08234171991909542</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.06792864136881312</v>
+        <v>0.06895877628531299</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.09848736686419816</v>
+        <v>0.09816586324409922</v>
       </c>
     </row>
     <row r="32">
@@ -2733,19 +2733,19 @@
         <v>359938</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>349043</v>
+        <v>349028</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>369799</v>
+        <v>369878</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.8841935752426305</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.8574314006714641</v>
+        <v>0.8573947155454298</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.9084177637276623</v>
+        <v>0.9086129764759788</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>736</v>
@@ -2754,19 +2754,19 @@
         <v>385709</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>374684</v>
+        <v>375170</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>395015</v>
+        <v>395161</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.8782753055631847</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.853172177407697</v>
+        <v>0.8542775599598409</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.8994656618564837</v>
+        <v>0.8997997257347188</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1238</v>
@@ -2775,19 +2775,19 @@
         <v>745646</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>730400</v>
+        <v>728631</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>760621</v>
+        <v>758556</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.8811222411534821</v>
+        <v>0.8811222411534824</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.8631063842594358</v>
+        <v>0.8610153121524257</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.8988176671371153</v>
+        <v>0.8963772475532502</v>
       </c>
     </row>
     <row r="33">
@@ -2882,7 +2882,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>6905</v>
+        <v>7561</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.00639391465800399</v>
@@ -2891,7 +2891,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.0222605493955767</v>
+        <v>0.0243737584057612</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>1</v>
@@ -2903,7 +2903,7 @@
         <v>0</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>3598</v>
+        <v>3290</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.001282515113729033</v>
@@ -2912,7 +2912,7 @@
         <v>0</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.007744763504989392</v>
+        <v>0.007082156936461965</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>3</v>
@@ -2921,19 +2921,19 @@
         <v>2579</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>7172</v>
+        <v>7214</v>
       </c>
       <c r="U34" s="6" t="n">
-        <v>0.00332889193354858</v>
+        <v>0.003328891933548579</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.0007694613090931343</v>
+        <v>0.0007721372502477185</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.009256549394448577</v>
+        <v>0.009311151890110706</v>
       </c>
     </row>
     <row r="35">
@@ -2950,19 +2950,19 @@
         <v>9255</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>4770</v>
+        <v>5223</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>14616</v>
+        <v>16457</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.02983700304421149</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.01537629502751878</v>
+        <v>0.01683802448992026</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.04711931704646816</v>
+        <v>0.05305288867335887</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>22</v>
@@ -2971,19 +2971,19 @@
         <v>13047</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>8270</v>
+        <v>7877</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>19597</v>
+        <v>19054</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>0.02808262881534686</v>
+        <v>0.02808262881534685</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.01779963078676176</v>
+        <v>0.01695462016462935</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.04218029519603501</v>
+        <v>0.04101027085383323</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>35</v>
@@ -2992,19 +2992,19 @@
         <v>22303</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>15613</v>
+        <v>15932</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>30894</v>
+        <v>32010</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.02878500215246125</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.02015083656445521</v>
+        <v>0.02056239432919128</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.03987337745089239</v>
+        <v>0.04131312373010104</v>
       </c>
     </row>
     <row r="36">
@@ -3021,19 +3021,19 @@
         <v>21359</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>14766</v>
+        <v>14169</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>29288</v>
+        <v>29834</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>0.06885518932122187</v>
+        <v>0.06885518932122185</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.04760052206495199</v>
+        <v>0.04567694758363552</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.09441868569892377</v>
+        <v>0.09617848150706587</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>71</v>
@@ -3042,19 +3042,19 @@
         <v>42222</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>33243</v>
+        <v>33820</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>51394</v>
+        <v>53439</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.09087577716948657</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.07154967856297782</v>
+        <v>0.07279195846346313</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.110618207787552</v>
+        <v>0.1150184427523866</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>102</v>
@@ -3063,19 +3063,19 @@
         <v>63580</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>51588</v>
+        <v>52505</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>76095</v>
+        <v>75810</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.08205971414385962</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.06658195811701872</v>
+        <v>0.06776470885872005</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.09821092018905705</v>
+        <v>0.09784432282486241</v>
       </c>
     </row>
     <row r="37">
@@ -3092,19 +3092,19 @@
         <v>277600</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>268008</v>
+        <v>266981</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>286215</v>
+        <v>285240</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.8949138929765627</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.8639905053661407</v>
+        <v>0.8606779433896214</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.9226836399520142</v>
+        <v>0.9195404843271887</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>787</v>
@@ -3113,19 +3113,19 @@
         <v>408744</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>397882</v>
+        <v>397148</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>418572</v>
+        <v>418824</v>
       </c>
       <c r="N37" s="6" t="n">
-        <v>0.8797590789014376</v>
+        <v>0.8797590789014373</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.8563807982208314</v>
+        <v>0.8547994213166907</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.900912849952491</v>
+        <v>0.9014541668769009</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>1199</v>
@@ -3134,19 +3134,19 @@
         <v>686344</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>672315</v>
+        <v>671543</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>700169</v>
+        <v>699202</v>
       </c>
       <c r="U37" s="6" t="n">
-        <v>0.8858263917701306</v>
+        <v>0.8858263917701305</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.8677198864121259</v>
+        <v>0.8667235833183337</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.9036688849788114</v>
+        <v>0.9024207959555229</v>
       </c>
     </row>
     <row r="38">
@@ -3238,19 +3238,19 @@
         <v>23530</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>14658</v>
+        <v>14081</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>37555</v>
+        <v>38459</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.006660518182240778</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.004149040242651668</v>
+        <v>0.003985711436498964</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.01063038885979341</v>
+        <v>0.01088633162236314</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>26</v>
@@ -3259,19 +3259,19 @@
         <v>21386</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>13451</v>
+        <v>13163</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>32425</v>
+        <v>33885</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>0.0057228078486556</v>
+        <v>0.005722807848655599</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.003599539113081227</v>
+        <v>0.003522360778612672</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.008676955169949358</v>
+        <v>0.009067558785440312</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>45</v>
@@ -3280,19 +3280,19 @@
         <v>44916</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>32541</v>
+        <v>32208</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>61935</v>
+        <v>61529</v>
       </c>
       <c r="U39" s="6" t="n">
-        <v>0.006178493781036172</v>
+        <v>0.00617849378103617</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.004476296122449319</v>
+        <v>0.004430390052723581</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.008519638800554811</v>
+        <v>0.008463762493278525</v>
       </c>
     </row>
     <row r="40">
@@ -3309,19 +3309,19 @@
         <v>123153</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>99756</v>
+        <v>100963</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>147320</v>
+        <v>146374</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.03486024065306785</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.02823735785709536</v>
+        <v>0.02857895346940222</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.04170110434498166</v>
+        <v>0.04143321767823199</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>164</v>
@@ -3330,19 +3330,19 @@
         <v>129808</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>111539</v>
+        <v>110926</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>153197</v>
+        <v>153005</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.03473629793426952</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.02984755455384609</v>
+        <v>0.02968340431233357</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.04099511900100573</v>
+        <v>0.04094375220595912</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>282</v>
@@ -3351,19 +3351,19 @@
         <v>252961</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>221562</v>
+        <v>224210</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>285970</v>
+        <v>286304</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.03479652863809621</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.03047738934847743</v>
+        <v>0.0308417079322176</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.03933710177795498</v>
+        <v>0.0393831602559456</v>
       </c>
     </row>
     <row r="41">
@@ -3380,19 +3380,19 @@
         <v>334505</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>298148</v>
+        <v>296033</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>371702</v>
+        <v>376835</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.0946865321925766</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.08439514600822193</v>
+        <v>0.08379642100480071</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.1052157047970723</v>
+        <v>0.1066686600169214</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>476</v>
@@ -3401,19 +3401,19 @@
         <v>367642</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>335944</v>
+        <v>335322</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>401485</v>
+        <v>401739</v>
       </c>
       <c r="N41" s="6" t="n">
-        <v>0.09838017075998243</v>
+        <v>0.09838017075998244</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.08989775797883043</v>
+        <v>0.08973131119215022</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.107436419379323</v>
+        <v>0.1075044019730578</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>780</v>
@@ -3422,19 +3422,19 @@
         <v>702147</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>653866</v>
+        <v>649650</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>755174</v>
+        <v>754256</v>
       </c>
       <c r="U41" s="6" t="n">
-        <v>0.09658522505640894</v>
+        <v>0.09658522505640893</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.089943782233706</v>
+        <v>0.08936385047814015</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.1038793679794209</v>
+        <v>0.1037531470884839</v>
       </c>
     </row>
     <row r="42">
@@ -3451,19 +3451,19 @@
         <v>3051574</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>3000943</v>
+        <v>3003871</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>3091016</v>
+        <v>3095619</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.8637927089721148</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.8494607264950373</v>
+        <v>0.8502896518243723</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.8749573781810883</v>
+        <v>0.8762603940234918</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>4701</v>
@@ -3472,19 +3472,19 @@
         <v>3218118</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>3178670</v>
+        <v>3177838</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>3256422</v>
+        <v>3255782</v>
       </c>
       <c r="N42" s="6" t="n">
-        <v>0.8611607234570927</v>
+        <v>0.8611607234570924</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.8506045850784183</v>
+        <v>0.8503820088130442</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.8714106987842486</v>
+        <v>0.8712394101696878</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>7636</v>
@@ -3493,19 +3493,19 @@
         <v>6269692</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>6208705</v>
+        <v>6210718</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>6326355</v>
+        <v>6338241</v>
       </c>
       <c r="U42" s="6" t="n">
-        <v>0.8624397525244587</v>
+        <v>0.8624397525244586</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.8540505392360148</v>
+        <v>0.8543275252481485</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.8702341883990934</v>
+        <v>0.8718690847350031</v>
       </c>
     </row>
     <row r="43">
